--- a/Women_IceHockey.xlsx
+++ b/Women_IceHockey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stick\Documents\R\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D864A7D7-23C3-4B7E-B89F-955F0A8B15FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631441C1-3C56-4E4A-BA89-FB2C94102A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D117879-529A-4BC2-9D26-00F1D701E332}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="103">
   <si>
     <t>Rank</t>
   </si>
@@ -700,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB40E3-5AFA-46C6-AEB0-AADF2F96F168}">
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351:XFD351"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204:XFD204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5378,23 +5378,23 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>0</v>
+      <c r="A204">
+        <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" t="s">
-        <v>3</v>
-      </c>
-      <c r="E204" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204">
+        <v>33</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+      <c r="E204">
         <v>4</v>
       </c>
-      <c r="F204" t="s">
-        <v>5</v>
+      <c r="F204">
+        <v>0.875</v>
       </c>
       <c r="G204" t="s">
         <v>80</v>
@@ -5402,22 +5402,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C205">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F205">
-        <v>0.875</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="G205" t="s">
         <v>80</v>
@@ -5425,22 +5425,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C206">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E206">
         <v>5</v>
       </c>
       <c r="F206">
-        <v>0.84099999999999997</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="G206" t="s">
         <v>80</v>
@@ -5448,22 +5448,22 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C207">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D207">
         <v>6</v>
       </c>
       <c r="E207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F207">
-        <v>0.78200000000000003</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="G207" t="s">
         <v>80</v>
@@ -5471,22 +5471,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C208">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="E208">
         <v>6</v>
       </c>
-      <c r="E208">
-        <v>4</v>
-      </c>
       <c r="F208">
-        <v>0.77800000000000002</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="G208" t="s">
         <v>80</v>
@@ -5494,22 +5494,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209">
+        <v>25</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209">
         <v>5</v>
       </c>
-      <c r="B209" t="s">
-        <v>56</v>
-      </c>
-      <c r="C209">
-        <v>24</v>
-      </c>
-      <c r="D209">
-        <v>5</v>
-      </c>
-      <c r="E209">
-        <v>6</v>
-      </c>
       <c r="F209">
-        <v>0.77100000000000002</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="G209" t="s">
         <v>80</v>
@@ -5517,22 +5517,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C210">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E210">
         <v>5</v>
       </c>
       <c r="F210">
-        <v>0.74299999999999999</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="G210" t="s">
         <v>80</v>
@@ -5540,22 +5540,22 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
         <v>7</v>
       </c>
-      <c r="B211" t="s">
-        <v>11</v>
-      </c>
       <c r="C211">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E211">
         <v>5</v>
       </c>
       <c r="F211">
-        <v>0.73099999999999998</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="G211" t="s">
         <v>80</v>
@@ -5563,22 +5563,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C212">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F212">
-        <v>0.66200000000000003</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="G212" t="s">
         <v>80</v>
@@ -5586,22 +5586,22 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C213">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D213">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E213">
         <v>3</v>
       </c>
       <c r="F213">
-        <v>0.65300000000000002</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="G213" t="s">
         <v>80</v>
@@ -5609,22 +5609,22 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C214">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D214">
         <v>10</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F214">
-        <v>0.65200000000000002</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G214" t="s">
         <v>80</v>
@@ -5632,22 +5632,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C215">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E215">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F215">
-        <v>0.64900000000000002</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="G215" t="s">
         <v>80</v>
@@ -5655,22 +5655,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C216">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D216">
         <v>12</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F216">
-        <v>0.63500000000000001</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G216" t="s">
         <v>80</v>
@@ -5678,22 +5678,22 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217">
+        <v>16</v>
+      </c>
+      <c r="D217">
         <v>13</v>
       </c>
-      <c r="B217" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217">
-        <v>19</v>
-      </c>
-      <c r="D217">
-        <v>12</v>
-      </c>
       <c r="E217">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F217">
-        <v>0.59499999999999997</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="G217" t="s">
         <v>80</v>
@@ -5701,22 +5701,22 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>63</v>
+      </c>
+      <c r="C218">
+        <v>15</v>
+      </c>
+      <c r="D218">
         <v>14</v>
       </c>
-      <c r="B218" t="s">
-        <v>53</v>
-      </c>
-      <c r="C218">
-        <v>16</v>
-      </c>
-      <c r="D218">
-        <v>13</v>
-      </c>
       <c r="E218">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F218">
-        <v>0.54400000000000004</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="G218" t="s">
         <v>80</v>
@@ -5724,22 +5724,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B219" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C219">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D219">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E219">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F219">
-        <v>0.51300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G219" t="s">
         <v>80</v>
@@ -5750,16 +5750,16 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C220">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D220">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E220">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F220">
         <v>0.5</v>
@@ -5770,22 +5770,22 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C221">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D221">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E221">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F221">
-        <v>0.5</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="G221" t="s">
         <v>80</v>
@@ -5793,22 +5793,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C222">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D222">
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F222">
-        <v>0.45700000000000002</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="G222" t="s">
         <v>80</v>
@@ -5816,10 +5816,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C223">
         <v>14</v>
@@ -5828,10 +5828,10 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F223">
-        <v>0.44600000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G223" t="s">
         <v>80</v>
@@ -5839,22 +5839,22 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B224" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C224">
         <v>14</v>
       </c>
       <c r="D224">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F224">
-        <v>0.44400000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G224" t="s">
         <v>80</v>
@@ -5862,22 +5862,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B225" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C225">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D225">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F225">
-        <v>0.42899999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G225" t="s">
         <v>80</v>
@@ -5885,22 +5885,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B226" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C226">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D226">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F226">
-        <v>0.38700000000000001</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="G226" t="s">
         <v>80</v>
@@ -5908,22 +5908,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C227">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D227">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E227">
         <v>3</v>
       </c>
       <c r="F227">
-        <v>0.38600000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="G227" t="s">
         <v>80</v>
@@ -5931,22 +5931,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B228" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C228">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D228">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F228">
-        <v>0.34699999999999998</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G228" t="s">
         <v>80</v>
@@ -5954,22 +5954,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C229">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D229">
         <v>21</v>
       </c>
       <c r="E229">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>0.32900000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G229" t="s">
         <v>80</v>
@@ -5977,22 +5977,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C230">
         <v>10</v>
       </c>
       <c r="D230">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F230">
-        <v>0.32800000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="G230" t="s">
         <v>80</v>
@@ -6003,16 +6003,16 @@
         <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C231">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D231">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F231">
         <v>0.30599999999999999</v>
@@ -6023,22 +6023,22 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B232" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C232">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D232">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F232">
-        <v>0.30599999999999999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="G232" t="s">
         <v>80</v>
@@ -6046,22 +6046,22 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D233">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E233">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.25900000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="s">
         <v>80</v>
@@ -6069,22 +6069,22 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C234">
         <v>7</v>
       </c>
       <c r="D234">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F234">
-        <v>0.25</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G234" t="s">
         <v>80</v>
@@ -6092,22 +6092,22 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B235" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C235">
         <v>7</v>
       </c>
       <c r="D235">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E235">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.24299999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="G235" t="s">
         <v>80</v>
@@ -6115,22 +6115,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B236" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C236">
         <v>7</v>
       </c>
       <c r="D236">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F236">
-        <v>0.24099999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="G236" t="s">
         <v>80</v>
@@ -6138,22 +6138,22 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B237" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C237">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D237">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E237">
         <v>2</v>
       </c>
       <c r="F237">
-        <v>0.222</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G237" t="s">
         <v>80</v>
@@ -6161,22 +6161,22 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D238">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>0.21199999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="G238" t="s">
         <v>80</v>
@@ -6184,45 +6184,45 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C239">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D239">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239">
-        <v>0.16200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G239" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B240" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C240">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F240">
-        <v>0.89</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="G240" t="s">
         <v>85</v>
@@ -6230,22 +6230,22 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C241">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>0.84199999999999997</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="G241" t="s">
         <v>85</v>
@@ -6253,22 +6253,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C242">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F242">
-        <v>0.84099999999999997</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="G242" t="s">
         <v>85</v>
@@ -6276,22 +6276,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C243">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F243">
-        <v>0.82899999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="G243" t="s">
         <v>85</v>
@@ -6299,22 +6299,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C244">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F244">
-        <v>0.8</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="G244" t="s">
         <v>85</v>
@@ -6322,22 +6322,22 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B245" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C245">
         <v>21</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E245">
         <v>4</v>
       </c>
       <c r="F245">
-        <v>0.79300000000000004</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G245" t="s">
         <v>85</v>
@@ -6345,22 +6345,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
+        <v>8</v>
+      </c>
+      <c r="B246" t="s">
         <v>7</v>
-      </c>
-      <c r="B246" t="s">
-        <v>56</v>
       </c>
       <c r="C246">
         <v>21</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F246">
-        <v>0.69699999999999995</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="G246" t="s">
         <v>85</v>
@@ -6368,22 +6368,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C247">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D247">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E247">
         <v>3</v>
       </c>
       <c r="F247">
-        <v>0.68200000000000005</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="G247" t="s">
         <v>85</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C248">
         <v>24</v>
@@ -6403,10 +6403,10 @@
         <v>11</v>
       </c>
       <c r="E248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F248">
-        <v>0.67100000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="G248" t="s">
         <v>85</v>
@@ -6414,13 +6414,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C249">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D249">
         <v>11</v>
@@ -6429,7 +6429,7 @@
         <v>4</v>
       </c>
       <c r="F249">
-        <v>0.66700000000000004</v>
+        <v>0.629</v>
       </c>
       <c r="G249" t="s">
         <v>85</v>
@@ -6437,22 +6437,22 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B250" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C250">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D250">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F250">
-        <v>0.629</v>
+        <v>0.625</v>
       </c>
       <c r="G250" t="s">
         <v>85</v>
@@ -6460,22 +6460,22 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B251" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C251">
         <v>16</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F251">
-        <v>0.625</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="G251" t="s">
         <v>85</v>
@@ -6483,22 +6483,22 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B252" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C252">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D252">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E252">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F252">
-        <v>0.56699999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="G252" t="s">
         <v>85</v>
@@ -6506,22 +6506,22 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C253">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D253">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E253">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F253">
-        <v>0.56599999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="G253" t="s">
         <v>85</v>
@@ -6529,22 +6529,22 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254">
+        <v>18</v>
+      </c>
+      <c r="D254">
         <v>15</v>
       </c>
-      <c r="B254" t="s">
-        <v>57</v>
-      </c>
-      <c r="C254">
-        <v>17</v>
-      </c>
-      <c r="D254">
-        <v>13</v>
-      </c>
       <c r="E254">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F254">
-        <v>0.55400000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="G254" t="s">
         <v>85</v>
@@ -6552,22 +6552,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C255">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D255">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F255">
-        <v>0.54100000000000004</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="G255" t="s">
         <v>85</v>
@@ -6578,16 +6578,16 @@
         <v>17</v>
       </c>
       <c r="B256" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C256">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D256">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E256">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F256">
         <v>0.52600000000000002</v>
@@ -6598,22 +6598,22 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B257" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C257">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D257">
         <v>14</v>
       </c>
       <c r="E257">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F257">
-        <v>0.52600000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G257" t="s">
         <v>85</v>
@@ -6621,22 +6621,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B258" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C258">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D258">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F258">
-        <v>0.5</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="G258" t="s">
         <v>85</v>
@@ -6647,16 +6647,16 @@
         <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C259">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D259">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E259">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F259">
         <v>0.48599999999999999</v>
@@ -6667,19 +6667,19 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B260" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C260">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D260">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E260">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F260">
         <v>0.48599999999999999</v>
@@ -6690,22 +6690,22 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C261">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D261">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F261">
-        <v>0.48599999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G261" t="s">
         <v>85</v>
@@ -6713,22 +6713,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B262" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C262">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D262">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E262">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F262">
-        <v>0.46100000000000002</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="G262" t="s">
         <v>85</v>
@@ -6736,22 +6736,22 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C263">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D263">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E263">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F263">
-        <v>0.45900000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="G263" t="s">
         <v>85</v>
@@ -6759,22 +6759,22 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B264" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C264">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D264">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E264">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F264">
-        <v>0.45200000000000001</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="G264" t="s">
         <v>85</v>
@@ -6782,22 +6782,22 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B265" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C265">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D265">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E265">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F265">
-        <v>0.43099999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="G265" t="s">
         <v>85</v>
@@ -6805,22 +6805,22 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B266" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C266">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D266">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F266">
-        <v>0.38900000000000001</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G266" t="s">
         <v>85</v>
@@ -6828,22 +6828,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B267" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C267">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D267">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E267">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F267">
-        <v>0.38700000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="G267" t="s">
         <v>85</v>
@@ -6851,22 +6851,22 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B268" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C268">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D268">
         <v>20</v>
       </c>
       <c r="E268">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F268">
-        <v>0.36799999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G268" t="s">
         <v>85</v>
@@ -6874,22 +6874,22 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B269" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C269">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D269">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E269">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F269">
-        <v>0.35699999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="G269" t="s">
         <v>85</v>
@@ -6897,22 +6897,22 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B270" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C270">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D270">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E270">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F270">
-        <v>0.35299999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="G270" t="s">
         <v>85</v>
@@ -6920,22 +6920,22 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B271" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C271">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D271">
         <v>20</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F271">
-        <v>0.33900000000000002</v>
+        <v>0.318</v>
       </c>
       <c r="G271" t="s">
         <v>85</v>
@@ -6943,22 +6943,22 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C272">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D272">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E272">
         <v>5</v>
       </c>
       <c r="F272">
-        <v>0.318</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="G272" t="s">
         <v>85</v>
@@ -6966,22 +6966,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B273" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C273">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D273">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E273">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F273">
-        <v>0.27900000000000003</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="G273" t="s">
         <v>85</v>
@@ -6989,45 +6989,45 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>42</v>
+      </c>
+      <c r="C274">
         <v>35</v>
       </c>
-      <c r="B274" t="s">
-        <v>13</v>
-      </c>
-      <c r="C274">
-        <v>5</v>
-      </c>
       <c r="D274">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F274">
-        <v>0.24099999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="G274" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275">
+        <v>32</v>
+      </c>
+      <c r="D275">
+        <v>6</v>
+      </c>
+      <c r="E275">
         <v>1</v>
       </c>
-      <c r="B275" t="s">
-        <v>42</v>
-      </c>
-      <c r="C275">
-        <v>35</v>
-      </c>
-      <c r="D275">
-        <v>4</v>
-      </c>
-      <c r="E275">
-        <v>2</v>
-      </c>
       <c r="F275">
-        <v>0.878</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G275" t="s">
         <v>87</v>
@@ -7035,22 +7035,22 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C276">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D276">
         <v>6</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F276">
-        <v>0.83299999999999996</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="G276" t="s">
         <v>87</v>
@@ -7058,22 +7058,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C277">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D277">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E277">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F277">
-        <v>0.77600000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="G277" t="s">
         <v>87</v>
@@ -7081,22 +7081,22 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C278">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D278">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F278">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="G278" t="s">
         <v>87</v>
@@ -7104,22 +7104,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C279">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D279">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E279">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F279">
-        <v>0.75</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="G279" t="s">
         <v>87</v>
@@ -7127,10 +7127,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C280">
         <v>20</v>
@@ -7139,10 +7139,10 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F280">
-        <v>0.68799999999999994</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="G280" t="s">
         <v>87</v>
@@ -7150,22 +7150,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C281">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D281">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E281">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F281">
-        <v>0.68200000000000005</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="G281" t="s">
         <v>87</v>
@@ -7173,22 +7173,22 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C282">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D282">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F282">
-        <v>0.67900000000000005</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G282" t="s">
         <v>87</v>
@@ -7199,16 +7199,16 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C283">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D283">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E283">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F283">
         <v>0.67600000000000005</v>
@@ -7219,22 +7219,22 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C284">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D284">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E284">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F284">
-        <v>0.67600000000000005</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="G284" t="s">
         <v>87</v>
@@ -7242,22 +7242,22 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B285" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C285">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D285">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E285">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F285">
-        <v>0.67100000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="G285" t="s">
         <v>87</v>
@@ -7265,22 +7265,22 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B286" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C286">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D286">
         <v>13</v>
       </c>
       <c r="E286">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F286">
-        <v>0.6</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="G286" t="s">
         <v>87</v>
@@ -7288,22 +7288,22 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B287" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C287">
         <v>16</v>
       </c>
       <c r="D287">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E287">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F287">
-        <v>0.54200000000000004</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="G287" t="s">
         <v>87</v>
@@ -7311,22 +7311,22 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B288" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D288">
         <v>14</v>
       </c>
       <c r="E288">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F288">
-        <v>0.52800000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G288" t="s">
         <v>87</v>
@@ -7334,22 +7334,22 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
+        <v>16</v>
+      </c>
+      <c r="B289" t="s">
+        <v>43</v>
+      </c>
+      <c r="C289">
+        <v>14</v>
+      </c>
+      <c r="D289">
         <v>15</v>
       </c>
-      <c r="B289" t="s">
-        <v>8</v>
-      </c>
-      <c r="C289">
-        <v>15</v>
-      </c>
-      <c r="D289">
-        <v>14</v>
-      </c>
       <c r="E289">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F289">
-        <v>0.51500000000000001</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="G289" t="s">
         <v>87</v>
@@ -7360,16 +7360,16 @@
         <v>16</v>
       </c>
       <c r="B290" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C290">
+        <v>13</v>
+      </c>
+      <c r="D290">
         <v>14</v>
       </c>
-      <c r="D290">
-        <v>15</v>
-      </c>
       <c r="E290">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F290">
         <v>0.48599999999999999</v>
@@ -7380,19 +7380,19 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
+        <v>18</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291">
+        <v>15</v>
+      </c>
+      <c r="D291">
         <v>16</v>
       </c>
-      <c r="B291" t="s">
-        <v>74</v>
-      </c>
-      <c r="C291">
-        <v>13</v>
-      </c>
-      <c r="D291">
-        <v>14</v>
-      </c>
       <c r="E291">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F291">
         <v>0.48599999999999999</v>
@@ -7403,22 +7403,22 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C292">
+        <v>14</v>
+      </c>
+      <c r="D292">
         <v>15</v>
       </c>
-      <c r="D292">
-        <v>16</v>
-      </c>
       <c r="E292">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F292">
-        <v>0.48599999999999999</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G292" t="s">
         <v>87</v>
@@ -7426,13 +7426,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B293" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C293">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D293">
         <v>15</v>
@@ -7441,7 +7441,7 @@
         <v>5</v>
       </c>
       <c r="F293">
-        <v>0.48499999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G293" t="s">
         <v>87</v>
@@ -7449,22 +7449,22 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B294" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C294">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D294">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E294">
         <v>5</v>
       </c>
       <c r="F294">
-        <v>0.45300000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="G294" t="s">
         <v>87</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B295" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C295">
         <v>14</v>
@@ -7484,10 +7484,10 @@
         <v>18</v>
       </c>
       <c r="E295">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F295">
-        <v>0.44600000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G295" t="s">
         <v>87</v>
@@ -7498,16 +7498,16 @@
         <v>22</v>
       </c>
       <c r="B296" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C296">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D296">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E296">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F296">
         <v>0.44400000000000001</v>
@@ -7518,22 +7518,22 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B297" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C297">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D297">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E297">
         <v>6</v>
       </c>
       <c r="F297">
-        <v>0.44400000000000001</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G297" t="s">
         <v>87</v>
@@ -7541,10 +7541,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B298" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C298">
         <v>12</v>
@@ -7553,10 +7553,10 @@
         <v>18</v>
       </c>
       <c r="E298">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F298">
-        <v>0.41699999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G298" t="s">
         <v>87</v>
@@ -7564,22 +7564,22 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B299" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C299">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D299">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E299">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F299">
-        <v>0.41399999999999998</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="G299" t="s">
         <v>87</v>
@@ -7587,22 +7587,22 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B300" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C300">
         <v>13</v>
       </c>
       <c r="D300">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F300">
-        <v>0.38900000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G300" t="s">
         <v>87</v>
@@ -7610,22 +7610,22 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C301">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D301">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E301">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F301">
-        <v>0.38200000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="G301" t="s">
         <v>87</v>
@@ -7633,22 +7633,22 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B302" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C302">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D302">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E302">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F302">
-        <v>0.36099999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G302" t="s">
         <v>87</v>
@@ -7656,22 +7656,22 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B303" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C303">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D303">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E303">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F303">
-        <v>0.35699999999999998</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G303" t="s">
         <v>87</v>
@@ -7679,22 +7679,22 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B304" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C304">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D304">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F304">
-        <v>0.32800000000000001</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G304" t="s">
         <v>87</v>
@@ -7702,22 +7702,22 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B305" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C305">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D305">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E305">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F305">
-        <v>0.29699999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="G305" t="s">
         <v>87</v>
@@ -7725,22 +7725,22 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B306" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C306">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D306">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E306">
         <v>4</v>
       </c>
       <c r="F306">
-        <v>0.27300000000000002</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="G306" t="s">
         <v>87</v>
@@ -7748,22 +7748,22 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B307" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C307">
         <v>5</v>
       </c>
       <c r="D307">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E307">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F307">
-        <v>0.24099999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="G307" t="s">
         <v>87</v>
@@ -7771,22 +7771,22 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B308" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C308">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D308">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E308">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F308">
-        <v>0.224</v>
+        <v>0.182</v>
       </c>
       <c r="G308" t="s">
         <v>87</v>
@@ -7794,45 +7794,45 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B309" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C309">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D309">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F309">
-        <v>0.182</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="G309" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C310">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D310">
+        <v>4</v>
+      </c>
+      <c r="E310">
         <v>2</v>
       </c>
-      <c r="E310">
-        <v>3</v>
-      </c>
       <c r="F310">
-        <v>0.89400000000000002</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="G310" t="s">
         <v>98</v>
@@ -7840,22 +7840,22 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B311" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C311">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D311">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F311">
-        <v>0.86799999999999999</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="G311" t="s">
         <v>98</v>
@@ -7863,22 +7863,22 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C312">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F312">
-        <v>0.81899999999999995</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="G312" t="s">
         <v>98</v>
@@ -7886,22 +7886,22 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B313" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C313">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D313">
         <v>6</v>
       </c>
       <c r="E313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F313">
-        <v>0.80300000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G313" t="s">
         <v>98</v>
@@ -7909,22 +7909,22 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C314">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D314">
         <v>6</v>
       </c>
       <c r="E314">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F314">
-        <v>0.79200000000000004</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="G314" t="s">
         <v>98</v>
@@ -7932,22 +7932,22 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C315">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D315">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E315">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F315">
-        <v>0.75700000000000001</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="G315" t="s">
         <v>98</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C316">
         <v>24</v>
@@ -7967,10 +7967,10 @@
         <v>8</v>
       </c>
       <c r="E316">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F316">
-        <v>0.72199999999999998</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="G316" t="s">
         <v>98</v>
@@ -7978,22 +7978,22 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C317">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D317">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E317">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F317">
-        <v>0.71099999999999997</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="G317" t="s">
         <v>98</v>
@@ -8004,7 +8004,7 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C318">
         <v>21</v>
@@ -8024,22 +8024,22 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C319">
         <v>21</v>
       </c>
       <c r="D319">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F319">
-        <v>0.65600000000000003</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="G319" t="s">
         <v>98</v>
@@ -8047,22 +8047,22 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C320">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D320">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E320">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F320">
-        <v>0.65300000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G320" t="s">
         <v>98</v>
@@ -8070,22 +8070,22 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
+        <v>13</v>
+      </c>
+      <c r="B321" t="s">
         <v>12</v>
       </c>
-      <c r="B321" t="s">
-        <v>56</v>
-      </c>
       <c r="C321">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D321">
         <v>12</v>
       </c>
       <c r="E321">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F321">
-        <v>0.61099999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G321" t="s">
         <v>98</v>
@@ -8093,22 +8093,22 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C322">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D322">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E322">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F322">
-        <v>0.58299999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="G322" t="s">
         <v>98</v>
@@ -8116,22 +8116,22 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B323" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C323">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D323">
         <v>14</v>
       </c>
       <c r="E323">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F323">
-        <v>0.58099999999999996</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="G323" t="s">
         <v>98</v>
@@ -8139,10 +8139,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B324" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C324">
         <v>18</v>
@@ -8151,10 +8151,10 @@
         <v>14</v>
       </c>
       <c r="E324">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F324">
-        <v>0.56100000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G324" t="s">
         <v>98</v>
@@ -8162,22 +8162,22 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B325" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C325">
         <v>18</v>
       </c>
       <c r="D325">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E325">
         <v>4</v>
       </c>
       <c r="F325">
-        <v>0.55600000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="G325" t="s">
         <v>98</v>
@@ -8185,22 +8185,22 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
+        <v>18</v>
+      </c>
+      <c r="B326" t="s">
+        <v>67</v>
+      </c>
+      <c r="C326">
         <v>17</v>
-      </c>
-      <c r="B326" t="s">
-        <v>58</v>
-      </c>
-      <c r="C326">
-        <v>18</v>
       </c>
       <c r="D326">
         <v>15</v>
       </c>
       <c r="E326">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F326">
-        <v>0.54100000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="G326" t="s">
         <v>98</v>
@@ -8208,22 +8208,22 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B327" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C327">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D327">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F327">
-        <v>0.53100000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="G327" t="s">
         <v>98</v>
@@ -8231,22 +8231,22 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B328" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C328">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D328">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E328">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F328">
-        <v>0.53</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="G328" t="s">
         <v>98</v>
@@ -8254,22 +8254,22 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B329" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C329">
         <v>17</v>
       </c>
       <c r="D329">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E329">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F329">
-        <v>0.52600000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G329" t="s">
         <v>98</v>
@@ -8277,19 +8277,19 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C330">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D330">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E330">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F330">
         <v>0.51400000000000001</v>
@@ -8300,22 +8300,22 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B331" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C331">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D331">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E331">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F331">
-        <v>0.51400000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="G331" t="s">
         <v>98</v>
@@ -8323,22 +8323,22 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B332" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C332">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D332">
         <v>18</v>
       </c>
       <c r="E332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F332">
-        <v>0.51300000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="G332" t="s">
         <v>98</v>
@@ -8346,22 +8346,22 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B333" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C333">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D333">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E333">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F333">
-        <v>0.47299999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="G333" t="s">
         <v>98</v>
@@ -8369,22 +8369,22 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B334" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C334">
         <v>13</v>
       </c>
       <c r="D334">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E334">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F334">
-        <v>0.47199999999999998</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="G334" t="s">
         <v>98</v>
@@ -8392,22 +8392,22 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B335" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C335">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D335">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E335">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F335">
-        <v>0.45800000000000002</v>
+        <v>0.438</v>
       </c>
       <c r="G335" t="s">
         <v>98</v>
@@ -8415,22 +8415,22 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B336" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C336">
         <v>14</v>
       </c>
       <c r="D336">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F336">
-        <v>0.438</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G336" t="s">
         <v>98</v>
@@ -8438,22 +8438,22 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B337" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C337">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D337">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E337">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F337">
-        <v>0.41699999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="G337" t="s">
         <v>98</v>
@@ -8461,22 +8461,22 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B338" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C338">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D338">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E338">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F338">
-        <v>0.4</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="G338" t="s">
         <v>98</v>
@@ -8484,22 +8484,22 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B339" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C339">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D339">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E339">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F339">
-        <v>0.38900000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="G339" t="s">
         <v>98</v>
@@ -8507,22 +8507,22 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B340" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C340">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D340">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E340">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F340">
-        <v>0.378</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G340" t="s">
         <v>98</v>
@@ -8530,22 +8530,22 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B341" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C341">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D341">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F341">
-        <v>0.34300000000000003</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G341" t="s">
         <v>98</v>
@@ -8553,22 +8553,22 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B342" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C342">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D342">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E342">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F342">
-        <v>0.29299999999999998</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="G342" t="s">
         <v>98</v>
@@ -8576,22 +8576,22 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B343" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C343">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D343">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E343">
         <v>4</v>
       </c>
       <c r="F343">
-        <v>0.23300000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G343" t="s">
         <v>98</v>
@@ -8599,22 +8599,22 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B344" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C344">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D344">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E344">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F344">
-        <v>0.22900000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="G344" t="s">
         <v>98</v>
@@ -8622,22 +8622,22 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B345" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C345">
         <v>5</v>
       </c>
       <c r="D345">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E345">
         <v>5</v>
       </c>
       <c r="F345">
-        <v>0.22700000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="G345" t="s">
         <v>98</v>
@@ -8648,7 +8648,7 @@
         <v>37</v>
       </c>
       <c r="B346" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C346">
         <v>5</v>
@@ -8671,7 +8671,7 @@
         <v>37</v>
       </c>
       <c r="B347" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C347">
         <v>5</v>
@@ -8691,22 +8691,22 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B348" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C348">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D348">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E348">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F348">
-        <v>0.221</v>
+        <v>0.155</v>
       </c>
       <c r="G348" t="s">
         <v>98</v>
@@ -8714,22 +8714,22 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B349" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C349">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D349">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E349">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F349">
-        <v>0.155</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G349" t="s">
         <v>98</v>
@@ -8737,45 +8737,45 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B350" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350">
         <v>0</v>
       </c>
-      <c r="D350">
-        <v>33</v>
-      </c>
       <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
         <v>1</v>
       </c>
-      <c r="F350">
-        <v>1.4999999999999999E-2</v>
-      </c>
       <c r="G350" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
+        <v>2</v>
+      </c>
+      <c r="B351" t="s">
+        <v>51</v>
+      </c>
+      <c r="C351">
+        <v>22</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+      <c r="E351">
         <v>1</v>
       </c>
-      <c r="B351" t="s">
-        <v>99</v>
-      </c>
-      <c r="C351">
-        <v>2</v>
-      </c>
-      <c r="D351">
-        <v>0</v>
-      </c>
-      <c r="E351">
-        <v>0</v>
-      </c>
       <c r="F351">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G351" t="s">
         <v>102</v>
@@ -8783,22 +8783,22 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B352" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C352">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E352">
         <v>1</v>
       </c>
       <c r="F352">
-        <v>0.9</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="G352" t="s">
         <v>102</v>
@@ -8806,22 +8806,22 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B353" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C353">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D353">
         <v>3</v>
       </c>
       <c r="E353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F353">
-        <v>0.83299999999999996</v>
+        <v>0.81</v>
       </c>
       <c r="G353" t="s">
         <v>102</v>
@@ -8829,22 +8829,22 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B354" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C354">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D354">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E354">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F354">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
       <c r="G354" t="s">
         <v>102</v>
@@ -8852,22 +8852,22 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C355">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D355">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F355">
-        <v>0.7</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="G355" t="s">
         <v>102</v>
@@ -8875,22 +8875,22 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C356">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D356">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E356">
         <v>1</v>
       </c>
       <c r="F356">
-        <v>0.67400000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="G356" t="s">
         <v>102</v>
@@ -8898,22 +8898,22 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
+        <v>8</v>
+      </c>
+      <c r="B357" t="s">
+        <v>54</v>
+      </c>
+      <c r="C357">
+        <v>13</v>
+      </c>
+      <c r="D357">
         <v>7</v>
       </c>
-      <c r="B357" t="s">
-        <v>56</v>
-      </c>
-      <c r="C357">
-        <v>16</v>
-      </c>
-      <c r="D357">
-        <v>8</v>
-      </c>
       <c r="E357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F357">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="G357" t="s">
         <v>102</v>
@@ -8921,13 +8921,13 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B358" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C358">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D358">
         <v>7</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="F358">
-        <v>0.65</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="G358" t="s">
         <v>102</v>
@@ -8944,22 +8944,22 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B359" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C359">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D359">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E359">
         <v>0</v>
       </c>
       <c r="F359">
-        <v>0.63200000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="G359" t="s">
         <v>102</v>
@@ -8967,22 +8967,22 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B360" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C360">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D360">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F360">
-        <v>0.625</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G360" t="s">
         <v>102</v>
@@ -8990,22 +8990,22 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B361" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C361">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D361">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E361">
         <v>1</v>
       </c>
       <c r="F361">
-        <v>0.59499999999999997</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G361" t="s">
         <v>102</v>
@@ -9013,22 +9013,22 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362">
+        <v>11</v>
+      </c>
+      <c r="D362">
         <v>8</v>
-      </c>
-      <c r="C362">
-        <v>10</v>
-      </c>
-      <c r="D362">
-        <v>7</v>
       </c>
       <c r="E362">
         <v>1</v>
       </c>
       <c r="F362">
-        <v>0.58299999999999996</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="G362" t="s">
         <v>102</v>
@@ -9036,22 +9036,22 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C363">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D363">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E363">
         <v>1</v>
       </c>
       <c r="F363">
-        <v>0.57499999999999996</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="G363" t="s">
         <v>102</v>
@@ -9059,22 +9059,22 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B364" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C364">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D364">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F364">
-        <v>0.56799999999999995</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="G364" t="s">
         <v>102</v>
@@ -9082,22 +9082,22 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B365" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C365">
         <v>6</v>
       </c>
       <c r="D365">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E365">
         <v>0</v>
       </c>
       <c r="F365">
-        <v>0.54500000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G365" t="s">
         <v>102</v>
@@ -9105,22 +9105,22 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B366" t="s">
+        <v>72</v>
+      </c>
+      <c r="C366">
         <v>9</v>
       </c>
-      <c r="C366">
-        <v>6</v>
-      </c>
       <c r="D366">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G366" t="s">
         <v>102</v>
@@ -9128,22 +9128,22 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B367" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C367">
+        <v>8</v>
+      </c>
+      <c r="D367">
         <v>9</v>
-      </c>
-      <c r="D367">
-        <v>10</v>
       </c>
       <c r="E367">
         <v>1</v>
       </c>
       <c r="F367">
-        <v>0.47499999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="G367" t="s">
         <v>102</v>
@@ -9151,22 +9151,22 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B368" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C368">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D368">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F368">
-        <v>0.47199999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="G368" t="s">
         <v>102</v>
@@ -9174,22 +9174,22 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B369" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C369">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D369">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F369">
-        <v>0.46200000000000002</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G369" t="s">
         <v>102</v>
@@ -9197,22 +9197,22 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B370" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C370">
+        <v>5</v>
+      </c>
+      <c r="D370">
         <v>8</v>
       </c>
-      <c r="D370">
-        <v>10</v>
-      </c>
       <c r="E370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F370">
-        <v>0.44700000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="G370" t="s">
         <v>102</v>
@@ -9220,22 +9220,22 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B371" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C371">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D371">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F371">
-        <v>0.38500000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="G371" t="s">
         <v>102</v>
@@ -9243,13 +9243,13 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B372" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C372">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D372">
         <v>12</v>
@@ -9258,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="F372">
-        <v>0.375</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G372" t="s">
         <v>102</v>
@@ -9266,22 +9266,22 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B373" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C373">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D373">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E373">
         <v>1</v>
       </c>
       <c r="F373">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="G373" t="s">
         <v>102</v>
@@ -9289,22 +9289,22 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B374" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C374">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D374">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E374">
         <v>1</v>
       </c>
       <c r="F374">
-        <v>0.34100000000000003</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G374" t="s">
         <v>102</v>
@@ -9312,22 +9312,22 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B375" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C375">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D375">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F375">
-        <v>0.22500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G375" t="s">
         <v>102</v>
@@ -9335,22 +9335,22 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B376" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C376">
         <v>2</v>
       </c>
       <c r="D376">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F376">
-        <v>0.15</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G376" t="s">
         <v>102</v>
@@ -9358,22 +9358,22 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B377" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D377">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F377">
-        <v>0.14699999999999999</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="G377" t="s">
         <v>102</v>
@@ -9381,22 +9381,22 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B378" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C378">
         <v>1</v>
       </c>
       <c r="D378">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E378">
         <v>0</v>
       </c>
       <c r="F378">
-        <v>9.0999999999999998E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G378" t="s">
         <v>102</v>
@@ -9407,7 +9407,7 @@
         <v>29</v>
       </c>
       <c r="B379" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -9422,29 +9422,6 @@
         <v>6.2E-2</v>
       </c>
       <c r="G379" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>29</v>
-      </c>
-      <c r="B380" t="s">
-        <v>79</v>
-      </c>
-      <c r="C380">
-        <v>1</v>
-      </c>
-      <c r="D380">
-        <v>15</v>
-      </c>
-      <c r="E380">
-        <v>0</v>
-      </c>
-      <c r="F380">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G380" t="s">
         <v>102</v>
       </c>
     </row>
